--- a/timer.xlsx
+++ b/timer.xlsx
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1166.8800000000006</v>
+        <v>1176.4100000000005</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -727,6 +727,104 @@
       </c>
       <c r="B46">
         <v>5.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>43137</v>
+      </c>
+      <c r="B47">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>43139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>43140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43155</v>
       </c>
     </row>
   </sheetData>
